--- a/Cobalt-202209.xlsx
+++ b/Cobalt-202209.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dendrite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFCB4AE-971B-431F-AAF8-EA2C605B663F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633B00AC-B16C-47B2-9A2E-5179F34C01C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10035" yWindow="2715" windowWidth="9915" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="36">
   <si>
     <t>Countries</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Australia</t>
   </si>
   <si>
-    <t>--</t>
-  </si>
-  <si>
     <t>Belgium</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
     <t xml:space="preserve">Canada </t>
   </si>
   <si>
-    <t>(7)</t>
-  </si>
-  <si>
     <t>China</t>
   </si>
   <si>
@@ -136,6 +130,9 @@
   </si>
   <si>
     <t>Metals_GW</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -469,8 +466,8 @@
   </sheetPr>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -480,10 +477,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -509,25 +506,25 @@
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I2" s="3">
         <v>48</v>
@@ -535,7 +532,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="8">
         <v>3</v>
@@ -550,10 +547,10 @@
         <v>1510</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="H3" s="3">
         <v>24</v>
@@ -564,19 +561,19 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F4" s="8">
         <v>49</v>
@@ -593,7 +590,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="8">
         <v>86</v>
@@ -602,13 +599,13 @@
         <v>4630</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G5" s="3">
         <v>3</v>
@@ -622,7 +619,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="8">
         <v>11</v>
@@ -637,10 +634,10 @@
         <v>187</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="H6" s="8">
         <v>19</v>
@@ -651,7 +648,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="8">
         <v>42</v>
@@ -680,7 +677,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="8">
         <v>33</v>
@@ -689,13 +686,13 @@
         <v>2860</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G8" s="3">
         <v>3</v>
@@ -709,28 +706,28 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I9" s="8">
         <v>49</v>
@@ -738,19 +735,19 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F10" s="3">
         <v>88</v>
@@ -767,13 +764,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
@@ -782,10 +779,10 @@
         <v>27</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="H11" s="3">
         <v>1</v>
@@ -796,7 +793,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" s="8">
         <v>102</v>
@@ -805,16 +802,16 @@
         <v>7050</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="H12" s="8">
         <v>102</v>
@@ -825,10 +822,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="3">
         <v>3</v>
@@ -840,10 +837,10 @@
         <v>627</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="H13" s="8">
         <v>37</v>
@@ -854,7 +851,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" s="8">
         <v>11</v>
@@ -863,16 +860,16 @@
         <v>637</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="H14" s="8">
         <v>11</v>
@@ -883,28 +880,28 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I15" s="8">
         <v>30</v>
@@ -912,7 +909,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" s="8">
         <v>40</v>
@@ -921,16 +918,16 @@
         <v>2040</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="H16" s="8">
         <v>40</v>
@@ -941,13 +938,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D17" s="3">
         <v>5</v>
@@ -956,10 +953,10 @@
         <v>215</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="H17" s="8">
         <v>4</v>
@@ -970,7 +967,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18" s="8">
         <v>236</v>
@@ -979,16 +976,16 @@
         <v>12800</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="H18" s="8">
         <v>236</v>
@@ -999,7 +996,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B19" s="8">
         <v>10</v>
@@ -1008,16 +1005,16 @@
         <v>481</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="H19" s="8">
         <v>10</v>
@@ -1028,28 +1025,28 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I20" s="8">
         <v>121</v>
@@ -1057,13 +1054,13 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D21" s="3">
         <v>8</v>
@@ -1072,10 +1069,10 @@
         <v>319</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="H21" s="8">
         <v>6</v>
@@ -1086,13 +1083,13 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D22" s="3">
         <v>4</v>
@@ -1115,28 +1112,28 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I23" s="8">
         <v>24</v>
@@ -1144,7 +1141,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B24" s="8">
         <v>4</v>
@@ -1173,28 +1170,28 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I25" s="8">
         <v>46</v>
@@ -1202,28 +1199,28 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C26" s="3">
         <v>39</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I26" s="3">
         <v>9</v>
